--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_files\GUI Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_files\Hunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A86DA2-ADD4-4452-A619-B447E8FDEABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FCBEE8-56A8-406A-8D06-676BEFD7C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32910" yWindow="285" windowWidth="21600" windowHeight="11295" xr2:uid="{F4ED9135-05F0-4936-AE87-A8F06421BD50}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{F4ED9135-05F0-4936-AE87-A8F06421BD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Thank you for your oder Ref ID $RANDOM$</t>
+    <t>thank you for your oder ref id $RANDOM$</t>
   </si>
   <si>
-    <t>Confirmation of your order of ID $RANDOM$</t>
+    <t>confirmation of your order of id $RANDOM$</t>
   </si>
   <si>
-    <t>Invoice of your current order $RANDOM$</t>
+    <t>invoice of your current order $RANDOM$</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
